--- a/tables/R10-HR-CF-foutcod.xlsx
+++ b/tables/R10-HR-CF-foutcod.xlsx
@@ -509,10 +509,10 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>45055</v>
+        <v>45232</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -544,10 +544,10 @@
         <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>45055</v>
+        <v>45232</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -579,10 +579,10 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>45055</v>
+        <v>45232</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -614,10 +614,10 @@
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>45055</v>
+        <v>45232</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -649,10 +649,10 @@
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>45055</v>
+        <v>45232</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -684,10 +684,10 @@
         <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>45055</v>
+        <v>45232</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -719,10 +719,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>45055</v>
+        <v>45232</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -754,10 +754,10 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>45055</v>
+        <v>45232</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -789,10 +789,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>45055</v>
+        <v>45232</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -824,10 +824,10 @@
         <v>12</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>45055</v>
+        <v>45232</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -859,10 +859,10 @@
         <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>45055</v>
+        <v>45232</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -894,10 +894,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>45055</v>
+        <v>45232</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -929,10 +929,10 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>45055</v>
+        <v>45232</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -964,10 +964,10 @@
         <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>45055</v>
+        <v>45232</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -999,10 +999,10 @@
         <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>45055</v>
+        <v>45232</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -1034,10 +1034,10 @@
         <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>45055</v>
+        <v>45232</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -1069,10 +1069,10 @@
         <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>45055</v>
+        <v>45232</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -1104,10 +1104,10 @@
         <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>45055</v>
+        <v>45232</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -1139,10 +1139,10 @@
         <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>45055</v>
+        <v>45232</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>

--- a/tables/R10-HR-CF-foutcod.xlsx
+++ b/tables/R10-HR-CF-foutcod.xlsx
@@ -117,9 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -156,7 +154,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
